--- a/Excel_second.xlsx
+++ b/Excel_second.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swapn\Microsoft-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0D3DAF-05C2-40E7-A785-63D3226C413C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BCA5C6-83C3-4C10-9A1E-38D68F9BBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBC3F5B-00F2-4D8F-AD48-CCFA4483C732}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -152,48 +152,6 @@
   </si>
   <si>
     <t>absent</t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>last name</t>
-  </si>
-  <si>
-    <t>full name</t>
-  </si>
-  <si>
-    <t>gmail</t>
-  </si>
-  <si>
-    <t>aman</t>
-  </si>
-  <si>
-    <t>raghav</t>
-  </si>
-  <si>
-    <t>komal</t>
-  </si>
-  <si>
-    <t>mayank</t>
-  </si>
-  <si>
-    <t>kiran</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>singh</t>
-  </si>
-  <si>
-    <t>gupta</t>
-  </si>
-  <si>
-    <t>mittal</t>
-  </si>
-  <si>
-    <t>kumari</t>
   </si>
 </sst>
 </file>
@@ -258,14 +216,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,42 +608,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C08120A-BBE5-4173-A0AD-0788EE4F1CD3}">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="3"/>
-    <col min="14" max="15" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="3"/>
-    <col min="17" max="17" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="8.88671875" style="3"/>
-    <col min="25" max="25" width="10.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="8.88671875" style="3"/>
-    <col min="28" max="28" width="9.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.88671875" style="3"/>
-    <col min="30" max="30" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="19.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="19.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,23 +685,11 @@
       <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -764,7 +699,7 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>50000</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -798,35 +733,27 @@
         <f t="array" ref="O2:O11">PROPER(B2:B11)</f>
         <v>A</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="3">
         <v>25000</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="3">
         <v>10000</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="3">
         <v>2000</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="3">
         <v>1800</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="3">
         <f>SUM(Q2:R2)-SUM(S2:T2)</f>
         <v>31200</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -836,7 +763,7 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>30000</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -863,35 +790,27 @@
       <c r="O3" s="1" t="str">
         <v>B</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>30000</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="3">
         <v>12000</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>2000</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="3">
         <v>1800</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="3">
         <f t="shared" ref="U3:U11" si="0">SUM(Q3:R3)-SUM(S3:T3)</f>
         <v>38200</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -901,7 +820,7 @@
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>40000</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -928,35 +847,27 @@
       <c r="O4" s="1" t="str">
         <v>C</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>45000</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>15000</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>2000</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>1800</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="3">
         <f t="shared" si="0"/>
         <v>56200</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -966,7 +877,7 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>40000</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -998,35 +909,27 @@
       <c r="O5" s="1" t="str">
         <v>D</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>25000</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>10000</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="3">
         <v>2000</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="3">
         <v>1800</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="3">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1036,7 +939,7 @@
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>30000</v>
       </c>
       <c r="N6" s="1" t="str">
@@ -1045,35 +948,27 @@
       <c r="O6" s="1" t="str">
         <v>E</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>30000</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <v>12000</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="3">
         <v>2000</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="3">
         <v>1800</v>
       </c>
-      <c r="U6" s="4">
+      <c r="U6" s="3">
         <f t="shared" si="0"/>
         <v>38200</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +978,7 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>50000</v>
       </c>
       <c r="N7" s="1" t="str">
@@ -1092,19 +987,19 @@
       <c r="O7" s="1" t="str">
         <v>F</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>45000</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>15000</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="3">
         <v>2000</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="3">
         <v>1800</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="3">
         <f t="shared" si="0"/>
         <v>56200</v>
       </c>
@@ -1112,7 +1007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1122,7 +1017,7 @@
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>30000</v>
       </c>
       <c r="N8" s="1" t="str">
@@ -1131,19 +1026,19 @@
       <c r="O8" s="1" t="str">
         <v>G</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>25000</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <v>10000</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="3">
         <v>2000</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="3">
         <v>1800</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="3">
         <f t="shared" si="0"/>
         <v>31200</v>
       </c>
@@ -1151,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1161,7 +1056,7 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>40000</v>
       </c>
       <c r="N9" s="1" t="str">
@@ -1170,19 +1065,19 @@
       <c r="O9" s="1" t="str">
         <v>H</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>30000</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="3">
         <v>12000</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="3">
         <v>1800</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="3">
         <f t="shared" si="0"/>
         <v>38200</v>
       </c>
@@ -1190,7 +1085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1200,7 +1095,7 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>40000</v>
       </c>
       <c r="N10" s="1" t="str">
@@ -1209,19 +1104,19 @@
       <c r="O10" s="1" t="str">
         <v>I</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>45000</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>15000</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <v>1800</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <f t="shared" si="0"/>
         <v>56200</v>
       </c>
@@ -1229,7 +1124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1239,7 +1134,7 @@
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>40000</v>
       </c>
       <c r="N11" s="1" t="str">
@@ -1248,19 +1143,19 @@
       <c r="O11" s="1" t="str">
         <v>J</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="3">
         <v>40000</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="3">
         <v>14000</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="3">
         <v>2000</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="3">
         <v>1800</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="3">
         <f t="shared" si="0"/>
         <v>50200</v>
       </c>
